--- a/scenarios_and_results/Scenario_low_discount_A_par_nuclear.xlsx
+++ b/scenarios_and_results/Scenario_low_discount_A_par_nuclear.xlsx
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0005165269482012838</v>
       </c>
       <c r="K9">
         <v>0.0002407701668906795</v>
       </c>
       <c r="L9">
-        <v>0.0002407701668906795</v>
+        <v>0.0007572971150919633</v>
       </c>
       <c r="M9">
         <v>0.0004073557647243246</v>
@@ -1754,7 +1754,7 @@
         <v>0.0771699252854742</v>
       </c>
       <c r="P9">
-        <v>8.398685488127612</v>
+        <v>15.09205659468886</v>
       </c>
       <c r="Q9">
         <v>0.8293031729703993</v>
@@ -1775,7 +1775,7 @@
         <v>15.09205659468848</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>6.693371106561255</v>
       </c>
       <c r="X9">
         <v>3.12</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.423592848806205E-05</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.423592848806205E-05</v>
       </c>
       <c r="M10">
         <v>0.0003074033245545582</v>
@@ -1831,7 +1831,7 @@
         <v>0.004118323031167378</v>
       </c>
       <c r="P10">
-        <v>74.64283938587057</v>
+        <v>87.8122600645317</v>
       </c>
       <c r="Q10">
         <v>0.09429836188463807</v>
@@ -1852,7 +1852,7 @@
         <v>87.81226006455543</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>13.16942067866113</v>
       </c>
       <c r="X10">
         <v>0</v>
